--- a/Results/2020/Primaries/‏‏National-Rep.xlsx
+++ b/Results/2020/Primaries/‏‏National-Rep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroz\Desktop\usa\USA\Results\2020\Primaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46CD616-4ED5-43CE-B570-FDE95B9A52E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FF2334-552A-419C-9E01-2A456B0BE9FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,9 +450,6 @@
     <t>Weld</t>
   </si>
   <si>
-    <t>Walshj</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
@@ -460,6 +457,9 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Walsh</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1382,8 @@
   <cols>
     <col min="1" max="3" width="10.69921875" style="1"/>
     <col min="4" max="4" width="10.69921875" style="4"/>
-    <col min="5" max="6" width="10.69921875" style="5"/>
+    <col min="5" max="5" width="10.69921875" style="5"/>
+    <col min="6" max="6" width="0" style="5" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="10.69921875" style="1"/>
     <col min="8" max="8" width="10.69921875" style="5"/>
     <col min="9" max="9" width="10.69921875" style="3"/>
@@ -1419,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1514,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P2" s="11">
         <v>348</v>
@@ -1526,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T2" s="11">
         <v>151</v>
@@ -2099,7 +2100,7 @@
         <v>43919</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F30" s="5">
         <v>29</v>
@@ -2127,7 +2128,7 @@
         <v>43925</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F31" s="5">
         <v>46</v>
@@ -2605,7 +2606,7 @@
         <v>43989</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F50" s="5">
         <v>23</v>
